--- a/results-partial/HW_C011_120.xlsx
+++ b/results-partial/HW_C011_120.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I13"/>
+  <dimension ref="A1:I25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -445,400 +445,692 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
+          <t>PSNR [dB]</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
           <t>Rows</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
+      <c r="B2" t="inlineStr">
         <is>
           <t>noisy</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
+      <c r="C2" t="inlineStr">
         <is>
           <t>bm3d</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>da3d</t>
         </is>
       </c>
-      <c r="E1" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>ddid</t>
         </is>
       </c>
-      <c r="F1" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>nldd</t>
         </is>
       </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>nlm_default</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>nlm</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
         <is>
           <t>nlmlbp</t>
         </is>
       </c>
-      <c r="I1" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>nlmglcm</t>
         </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B2" t="n">
-        <v>27.76911232435696</v>
-      </c>
-      <c r="C2" t="n">
-        <v>31.10901842455135</v>
-      </c>
-      <c r="D2" t="n">
-        <v>30.52197411227781</v>
-      </c>
-      <c r="E2" t="n">
-        <v>30.91939914606038</v>
-      </c>
-      <c r="F2" t="n">
-        <v>30.52197411227781</v>
-      </c>
-      <c r="G2" t="n">
-        <v>27.9843066513472</v>
-      </c>
-      <c r="H2" t="n">
-        <v>30.95469958623617</v>
-      </c>
-      <c r="I2" t="n">
-        <v>30.7776983602707</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>27.77218200925297</v>
+        <v>27.76911232435696</v>
       </c>
       <c r="C3" t="n">
-        <v>31.09980282862022</v>
+        <v>31.10901842455135</v>
       </c>
       <c r="D3" t="n">
-        <v>30.51690582480116</v>
+        <v>30.52197411227781</v>
       </c>
       <c r="E3" t="n">
-        <v>30.87320065390303</v>
+        <v>30.91939914606038</v>
       </c>
       <c r="F3" t="n">
-        <v>30.51695333396939</v>
+        <v>30.52197411227781</v>
       </c>
       <c r="G3" t="n">
-        <v>27.98632400906789</v>
+        <v>28.73215485890972</v>
       </c>
       <c r="H3" t="n">
-        <v>30.94594025855241</v>
+        <v>30.95469958623617</v>
       </c>
       <c r="I3" t="n">
-        <v>30.77050594623125</v>
+        <v>30.7776983602707</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>27.77961035142656</v>
+        <v>27.77218200925297</v>
       </c>
       <c r="C4" t="n">
-        <v>31.11433827356054</v>
+        <v>31.09980282862022</v>
       </c>
       <c r="D4" t="n">
-        <v>30.54392110384799</v>
+        <v>30.51690582480116</v>
       </c>
       <c r="E4" t="n">
-        <v>30.92496852791282</v>
+        <v>30.87320065390303</v>
       </c>
       <c r="F4" t="n">
-        <v>30.54386812400579</v>
+        <v>30.51695333396939</v>
       </c>
       <c r="G4" t="n">
-        <v>27.99377650155971</v>
+        <v>28.73017443103481</v>
       </c>
       <c r="H4" t="n">
-        <v>30.95196471224806</v>
+        <v>30.94594025855241</v>
       </c>
       <c r="I4" t="n">
-        <v>30.77691906802857</v>
+        <v>30.77050594623125</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>27.77726214367717</v>
+        <v>27.77961035142656</v>
       </c>
       <c r="C5" t="n">
-        <v>31.08759309241858</v>
+        <v>31.11433827356054</v>
       </c>
       <c r="D5" t="n">
-        <v>30.52794411146755</v>
+        <v>30.54392110384799</v>
       </c>
       <c r="E5" t="n">
-        <v>30.90301529538088</v>
+        <v>30.92496852791282</v>
       </c>
       <c r="F5" t="n">
-        <v>30.52794411146755</v>
+        <v>30.54386812400579</v>
       </c>
       <c r="G5" t="n">
-        <v>27.99034251260517</v>
+        <v>28.75065877977712</v>
       </c>
       <c r="H5" t="n">
-        <v>30.9284795414577</v>
+        <v>30.95196471224806</v>
       </c>
       <c r="I5" t="n">
-        <v>30.77259273070513</v>
+        <v>30.77691906802857</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>27.77727439371471</v>
+        <v>27.77726214367717</v>
       </c>
       <c r="C6" t="n">
-        <v>31.11090657174942</v>
+        <v>31.08759309241858</v>
       </c>
       <c r="D6" t="n">
-        <v>30.54635714960438</v>
+        <v>30.52794411146755</v>
       </c>
       <c r="E6" t="n">
-        <v>30.91504964198087</v>
+        <v>30.90301529538088</v>
       </c>
       <c r="F6" t="n">
-        <v>30.54635714960438</v>
+        <v>30.52794411146755</v>
       </c>
       <c r="G6" t="n">
-        <v>27.9938049937049</v>
+        <v>28.71958927414393</v>
       </c>
       <c r="H6" t="n">
-        <v>30.94385957015226</v>
+        <v>30.9284795414577</v>
       </c>
       <c r="I6" t="n">
-        <v>30.76426949011036</v>
+        <v>30.77259273070513</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>27.78616386283362</v>
+        <v>27.77727439371471</v>
       </c>
       <c r="C7" t="n">
-        <v>31.12696904363628</v>
+        <v>31.11090657174942</v>
       </c>
       <c r="D7" t="n">
-        <v>30.5198332620228</v>
+        <v>30.54635714960438</v>
       </c>
       <c r="E7" t="n">
-        <v>30.91938947387369</v>
+        <v>30.91504964198087</v>
       </c>
       <c r="F7" t="n">
-        <v>30.5198332620228</v>
+        <v>30.54635714960438</v>
       </c>
       <c r="G7" t="n">
-        <v>28.00156839250013</v>
+        <v>28.75917888691178</v>
       </c>
       <c r="H7" t="n">
-        <v>30.9421712131131</v>
+        <v>30.94385957015226</v>
       </c>
       <c r="I7" t="n">
-        <v>30.7632603682025</v>
+        <v>30.76426949011036</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>27.75530679326049</v>
+        <v>27.78616386283362</v>
       </c>
       <c r="C8" t="n">
-        <v>31.08044825129877</v>
+        <v>31.12696904363628</v>
       </c>
       <c r="D8" t="n">
-        <v>30.48317797366307</v>
+        <v>30.5198332620228</v>
       </c>
       <c r="E8" t="n">
-        <v>30.87845608722931</v>
+        <v>30.91938947387369</v>
       </c>
       <c r="F8" t="n">
-        <v>30.48336581424385</v>
+        <v>30.5198332620228</v>
       </c>
       <c r="G8" t="n">
-        <v>27.96725974017946</v>
+        <v>28.72917676736659</v>
       </c>
       <c r="H8" t="n">
-        <v>30.92070938909953</v>
+        <v>30.9421712131131</v>
       </c>
       <c r="I8" t="n">
-        <v>30.75836428566049</v>
+        <v>30.7632603682025</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>27.75427856400638</v>
+        <v>27.75530679326049</v>
       </c>
       <c r="C9" t="n">
-        <v>31.07006700840887</v>
+        <v>31.08044825129877</v>
       </c>
       <c r="D9" t="n">
-        <v>30.51101308726318</v>
+        <v>30.48317797366307</v>
       </c>
       <c r="E9" t="n">
-        <v>30.86501790175853</v>
+        <v>30.87845608722931</v>
       </c>
       <c r="F9" t="n">
-        <v>30.51101308726318</v>
+        <v>30.48336581424385</v>
       </c>
       <c r="G9" t="n">
-        <v>27.97265560911148</v>
+        <v>28.72606403074571</v>
       </c>
       <c r="H9" t="n">
-        <v>30.91092999684085</v>
+        <v>30.92070938909953</v>
       </c>
       <c r="I9" t="n">
-        <v>30.74415907967398</v>
+        <v>30.75836428566049</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>27.7901244056256</v>
+        <v>27.75427856400638</v>
       </c>
       <c r="C10" t="n">
-        <v>31.10065011605249</v>
+        <v>31.07006700840887</v>
       </c>
       <c r="D10" t="n">
-        <v>30.50500964125197</v>
+        <v>30.51101308726318</v>
       </c>
       <c r="E10" t="n">
-        <v>30.88065931291689</v>
+        <v>30.86501790175853</v>
       </c>
       <c r="F10" t="n">
-        <v>30.50500964125197</v>
+        <v>30.51101308726318</v>
       </c>
       <c r="G10" t="n">
-        <v>28.01388178300717</v>
+        <v>28.71131995124655</v>
       </c>
       <c r="H10" t="n">
-        <v>30.9329328084545</v>
+        <v>30.91092999684085</v>
       </c>
       <c r="I10" t="n">
-        <v>30.74355245377975</v>
+        <v>30.74415907967398</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>27.7901244056256</v>
+      </c>
+      <c r="C11" t="n">
+        <v>31.10065011605249</v>
+      </c>
+      <c r="D11" t="n">
+        <v>30.50500964125197</v>
+      </c>
+      <c r="E11" t="n">
+        <v>30.88065931291689</v>
+      </c>
+      <c r="F11" t="n">
+        <v>30.50500964125197</v>
+      </c>
+      <c r="G11" t="n">
+        <v>28.73995694846501</v>
+      </c>
+      <c r="H11" t="n">
+        <v>30.9329328084545</v>
+      </c>
+      <c r="I11" t="n">
+        <v>30.74355245377975</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
         <v>10</v>
       </c>
-      <c r="B11" t="n">
+      <c r="B12" t="n">
         <v>27.74684977610189</v>
       </c>
-      <c r="C11" t="n">
+      <c r="C12" t="n">
         <v>31.06070989267771</v>
       </c>
-      <c r="D11" t="n">
+      <c r="D12" t="n">
         <v>30.45866693232601</v>
       </c>
-      <c r="E11" t="n">
+      <c r="E12" t="n">
         <v>30.85398469512181</v>
       </c>
-      <c r="F11" t="n">
+      <c r="F12" t="n">
         <v>30.45866693232601</v>
       </c>
-      <c r="G11" t="n">
-        <v>27.96708724510312</v>
-      </c>
-      <c r="H11" t="n">
+      <c r="G12" t="n">
+        <v>28.68483529847406</v>
+      </c>
+      <c r="H12" t="n">
         <v>30.91411999277354</v>
       </c>
-      <c r="I11" t="n">
+      <c r="I12" t="n">
         <v>30.74720355168089</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Average</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>27.77081646242563</v>
-      </c>
-      <c r="C12" t="n">
-        <v>31.09605035029742</v>
-      </c>
-      <c r="D12" t="n">
-        <v>30.51348031985259</v>
-      </c>
-      <c r="E12" t="n">
-        <v>30.89331407361382</v>
-      </c>
-      <c r="F12" t="n">
-        <v>30.51349855684328</v>
-      </c>
-      <c r="G12" t="n">
-        <v>27.98710074381862</v>
-      </c>
-      <c r="H12" t="n">
-        <v>30.93458070689281</v>
-      </c>
-      <c r="I12" t="n">
-        <v>30.76185253343436</v>
-      </c>
-    </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Improvement</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>0</v>
-      </c>
-      <c r="C13" t="n">
-        <v>3.325233887871793</v>
-      </c>
-      <c r="D13" t="n">
-        <v>2.742663857426962</v>
-      </c>
-      <c r="E13" t="n">
-        <v>3.122497611188187</v>
-      </c>
-      <c r="F13" t="n">
-        <v>2.742682094417646</v>
-      </c>
-      <c r="G13" t="n">
-        <v>0.2162842813929906</v>
-      </c>
-      <c r="H13" t="n">
-        <v>3.163764244467181</v>
-      </c>
-      <c r="I13" t="n">
-        <v>2.991036071008729</v>
+      <c r="A13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>SSIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Rows</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>noisy</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>bm3d</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>da3d</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>ddid</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>nldd</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>nlm</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>nlmlbp</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>nlmglcm</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>1</v>
+      </c>
+      <c r="B16" t="n">
+        <v>0.8725138388397375</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.9385744794052772</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.9317832743855049</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.9364827370764419</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.9317832743855049</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.8942697282425419</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0.9301940230642545</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0.9240934647400011</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>2</v>
+      </c>
+      <c r="B17" t="n">
+        <v>0.8727187575884249</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.9383860264769596</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.9321866301242006</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.9361981198918361</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.9321867548064739</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.8944628491735525</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0.930169286140088</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0.9238012790961887</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>3</v>
+      </c>
+      <c r="B18" t="n">
+        <v>0.8726367688910496</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.9383255712669303</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0.9329263183170999</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.9368866462134275</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0.9329260763460824</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.8953776560964772</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0.9300565832082013</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0.9233348518912723</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>4</v>
+      </c>
+      <c r="B19" t="n">
+        <v>0.8730633845545206</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.9378443005897498</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0.9318167306089167</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0.9363615050005339</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0.9318167306089167</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0.8958373302870091</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0.930146909066223</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0.9233555939633546</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>5</v>
+      </c>
+      <c r="B20" t="n">
+        <v>0.872589374604264</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.938267426236136</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0.9322293120459035</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0.9358172856952384</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0.9322293120459035</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0.8956001515335654</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0.9300928819250391</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0.923144638418693</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>6</v>
+      </c>
+      <c r="B21" t="n">
+        <v>0.8731363384769452</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.9383418002961098</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0.9316951458671338</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0.9357680153940509</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0.9316951458671338</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.8941625726723866</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0.9293369846379396</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0.9237470187142526</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>7</v>
+      </c>
+      <c r="B22" t="n">
+        <v>0.8721551379605579</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.937776936775723</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0.931472178636099</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0.9356507881004968</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0.9314726158180503</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.8943467448020384</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0.9289729532333246</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0.9235203224402896</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>8</v>
+      </c>
+      <c r="B23" t="n">
+        <v>0.8716204338407421</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.9380286512452956</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0.9322783561066511</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0.9359004482954634</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0.9322783561066511</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0.8936875427156687</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0.9290868681536301</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0.9227310129510625</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>9</v>
+      </c>
+      <c r="B24" t="n">
+        <v>0.873127432505486</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0.9391897299456251</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0.9312753888015605</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0.9365669391465014</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0.9312753888015605</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0.8942913716326706</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0.9288229235132315</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0.9229675371267486</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>10</v>
+      </c>
+      <c r="B25" t="n">
+        <v>0.8722211432861292</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0.9385759333901124</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0.9320167047668615</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0.9358984399732173</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0.9320167047668615</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.8940767014340439</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0.930343458137494</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0.9236450355357262</v>
       </c>
     </row>
   </sheetData>
@@ -852,7 +1144,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I13"/>
+  <dimension ref="A1:I25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -863,400 +1155,692 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
+          <t>PSNR [dB]</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
           <t>Rows</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
+      <c r="B2" t="inlineStr">
         <is>
           <t>noisy</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
+      <c r="C2" t="inlineStr">
         <is>
           <t>bm3d</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>da3d</t>
         </is>
       </c>
-      <c r="E1" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>ddid</t>
         </is>
       </c>
-      <c r="F1" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>nldd</t>
         </is>
       </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>nlm_default</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>nlm</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
         <is>
           <t>nlmlbp</t>
         </is>
       </c>
-      <c r="I1" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>nlmglcm</t>
         </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B2" t="n">
-        <v>19.65532595139404</v>
-      </c>
-      <c r="C2" t="n">
-        <v>28.660774944214</v>
-      </c>
-      <c r="D2" t="n">
-        <v>28.08128702031318</v>
-      </c>
-      <c r="E2" t="n">
-        <v>28.59801363646241</v>
-      </c>
-      <c r="F2" t="n">
-        <v>28.08122985509165</v>
-      </c>
-      <c r="G2" t="n">
-        <v>20.59298055692545</v>
-      </c>
-      <c r="H2" t="n">
-        <v>27.72216175425647</v>
-      </c>
-      <c r="I2" t="n">
-        <v>26.89139749752403</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>19.67921997613642</v>
+        <v>19.65532595139404</v>
       </c>
       <c r="C3" t="n">
-        <v>28.67096522867126</v>
+        <v>28.660774944214</v>
       </c>
       <c r="D3" t="n">
-        <v>28.08739447408528</v>
+        <v>28.08128702031318</v>
       </c>
       <c r="E3" t="n">
-        <v>28.59423966251498</v>
+        <v>28.59801363646241</v>
       </c>
       <c r="F3" t="n">
-        <v>28.08739447408528</v>
+        <v>28.08122985509165</v>
       </c>
       <c r="G3" t="n">
-        <v>20.61175420478654</v>
+        <v>23.69330455971285</v>
       </c>
       <c r="H3" t="n">
-        <v>27.7557374228078</v>
+        <v>27.72216175425647</v>
       </c>
       <c r="I3" t="n">
-        <v>26.93310444305272</v>
+        <v>26.89139749752403</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>19.66943412625176</v>
+        <v>19.67921997613642</v>
       </c>
       <c r="C4" t="n">
-        <v>28.63903655784162</v>
+        <v>28.67096522867126</v>
       </c>
       <c r="D4" t="n">
-        <v>28.04370695126094</v>
+        <v>28.08739447408528</v>
       </c>
       <c r="E4" t="n">
-        <v>28.58112983218083</v>
+        <v>28.59423966251498</v>
       </c>
       <c r="F4" t="n">
-        <v>28.04370695126094</v>
+        <v>28.08739447408528</v>
       </c>
       <c r="G4" t="n">
-        <v>20.60380392280192</v>
+        <v>23.7078077883061</v>
       </c>
       <c r="H4" t="n">
-        <v>27.72065624395826</v>
+        <v>27.7557374228078</v>
       </c>
       <c r="I4" t="n">
-        <v>26.92105600439268</v>
+        <v>26.93310444305272</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>19.66423290171531</v>
+        <v>19.66943412625176</v>
       </c>
       <c r="C5" t="n">
-        <v>28.64166100829563</v>
+        <v>28.63903655784162</v>
       </c>
       <c r="D5" t="n">
-        <v>28.11372768852143</v>
+        <v>28.04370695126094</v>
       </c>
       <c r="E5" t="n">
-        <v>28.58872960203239</v>
+        <v>28.58112983218083</v>
       </c>
       <c r="F5" t="n">
-        <v>28.11372853342434</v>
+        <v>28.04370695126094</v>
       </c>
       <c r="G5" t="n">
-        <v>20.60797006480321</v>
+        <v>23.75382119121785</v>
       </c>
       <c r="H5" t="n">
-        <v>27.74387410776457</v>
+        <v>27.72065624395826</v>
       </c>
       <c r="I5" t="n">
-        <v>26.92738566519877</v>
+        <v>26.92105600439268</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>19.66589164591669</v>
+        <v>19.66423290171531</v>
       </c>
       <c r="C6" t="n">
-        <v>28.65084148567704</v>
+        <v>28.64166100829563</v>
       </c>
       <c r="D6" t="n">
-        <v>28.05884533846213</v>
+        <v>28.11372768852143</v>
       </c>
       <c r="E6" t="n">
-        <v>28.56489115267898</v>
+        <v>28.58872960203239</v>
       </c>
       <c r="F6" t="n">
-        <v>28.05884533846213</v>
+        <v>28.11372853342434</v>
       </c>
       <c r="G6" t="n">
-        <v>20.60867369814414</v>
+        <v>23.71508499590433</v>
       </c>
       <c r="H6" t="n">
-        <v>27.76003178999528</v>
+        <v>27.74387410776457</v>
       </c>
       <c r="I6" t="n">
-        <v>26.96486343573279</v>
+        <v>26.92738566519877</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>19.66379350465722</v>
+        <v>19.66589164591669</v>
       </c>
       <c r="C7" t="n">
-        <v>28.66067655759731</v>
+        <v>28.65084148567704</v>
       </c>
       <c r="D7" t="n">
-        <v>28.06228593420627</v>
+        <v>28.05884533846213</v>
       </c>
       <c r="E7" t="n">
-        <v>28.58919603497791</v>
+        <v>28.56489115267898</v>
       </c>
       <c r="F7" t="n">
-        <v>28.06228593420627</v>
+        <v>28.05884533846213</v>
       </c>
       <c r="G7" t="n">
-        <v>20.60768845833646</v>
+        <v>23.73651781207023</v>
       </c>
       <c r="H7" t="n">
-        <v>27.73792074456587</v>
+        <v>27.76003178999528</v>
       </c>
       <c r="I7" t="n">
-        <v>26.90451531606208</v>
+        <v>26.96486343573279</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>19.67290162511125</v>
+        <v>19.66379350465722</v>
       </c>
       <c r="C8" t="n">
-        <v>28.67172606936938</v>
+        <v>28.66067655759731</v>
       </c>
       <c r="D8" t="n">
-        <v>28.0837340896867</v>
+        <v>28.06228593420627</v>
       </c>
       <c r="E8" t="n">
-        <v>28.57701123773497</v>
+        <v>28.58919603497791</v>
       </c>
       <c r="F8" t="n">
-        <v>28.0837340896867</v>
+        <v>28.06228593420627</v>
       </c>
       <c r="G8" t="n">
-        <v>20.60825906738916</v>
+        <v>23.71930040370508</v>
       </c>
       <c r="H8" t="n">
-        <v>27.75306045787445</v>
+        <v>27.73792074456587</v>
       </c>
       <c r="I8" t="n">
-        <v>26.93748313618756</v>
+        <v>26.90451531606208</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>19.68033866088162</v>
+        <v>19.67290162511125</v>
       </c>
       <c r="C9" t="n">
-        <v>28.64597733622266</v>
+        <v>28.67172606936938</v>
       </c>
       <c r="D9" t="n">
-        <v>28.05983589608442</v>
+        <v>28.0837340896867</v>
       </c>
       <c r="E9" t="n">
-        <v>28.57487823929212</v>
+        <v>28.57701123773497</v>
       </c>
       <c r="F9" t="n">
-        <v>28.05985898351333</v>
+        <v>28.0837340896867</v>
       </c>
       <c r="G9" t="n">
-        <v>20.62407664191518</v>
+        <v>23.75224540332784</v>
       </c>
       <c r="H9" t="n">
-        <v>27.74286629429223</v>
+        <v>27.75306045787445</v>
       </c>
       <c r="I9" t="n">
-        <v>26.93446788302758</v>
+        <v>26.93748313618756</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>19.66450176155188</v>
+        <v>19.68033866088162</v>
       </c>
       <c r="C10" t="n">
-        <v>28.68274340569896</v>
+        <v>28.64597733622266</v>
       </c>
       <c r="D10" t="n">
-        <v>28.07506615822355</v>
+        <v>28.05983589608442</v>
       </c>
       <c r="E10" t="n">
-        <v>28.59901846310788</v>
+        <v>28.57487823929212</v>
       </c>
       <c r="F10" t="n">
-        <v>28.07501982152134</v>
+        <v>28.05985898351333</v>
       </c>
       <c r="G10" t="n">
-        <v>20.59836722153656</v>
+        <v>23.7297820124186</v>
       </c>
       <c r="H10" t="n">
-        <v>27.77910290379109</v>
+        <v>27.74286629429223</v>
       </c>
       <c r="I10" t="n">
-        <v>26.95557959879827</v>
+        <v>26.93446788302758</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>19.66450176155188</v>
+      </c>
+      <c r="C11" t="n">
+        <v>28.68274340569896</v>
+      </c>
+      <c r="D11" t="n">
+        <v>28.07506615822355</v>
+      </c>
+      <c r="E11" t="n">
+        <v>28.59901846310788</v>
+      </c>
+      <c r="F11" t="n">
+        <v>28.07501982152134</v>
+      </c>
+      <c r="G11" t="n">
+        <v>23.72975717507988</v>
+      </c>
+      <c r="H11" t="n">
+        <v>27.77910290379109</v>
+      </c>
+      <c r="I11" t="n">
+        <v>26.95557959879827</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
         <v>10</v>
       </c>
-      <c r="B11" t="n">
+      <c r="B12" t="n">
         <v>19.67037031089562</v>
       </c>
-      <c r="C11" t="n">
+      <c r="C12" t="n">
         <v>28.66567265419068</v>
       </c>
-      <c r="D11" t="n">
+      <c r="D12" t="n">
         <v>28.05275787850399</v>
       </c>
-      <c r="E11" t="n">
+      <c r="E12" t="n">
         <v>28.60457313448281</v>
       </c>
-      <c r="F11" t="n">
+      <c r="F12" t="n">
         <v>28.05275787850399</v>
       </c>
-      <c r="G11" t="n">
-        <v>20.61782906497574</v>
-      </c>
-      <c r="H11" t="n">
+      <c r="G12" t="n">
+        <v>23.75119112154461</v>
+      </c>
+      <c r="H12" t="n">
         <v>27.78218657562942</v>
       </c>
-      <c r="I11" t="n">
+      <c r="I12" t="n">
         <v>26.95469786498783</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Average</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>19.66860104645118</v>
-      </c>
-      <c r="C12" t="n">
-        <v>28.65900752477786</v>
-      </c>
-      <c r="D12" t="n">
-        <v>28.07186414293479</v>
-      </c>
-      <c r="E12" t="n">
-        <v>28.58716809954653</v>
-      </c>
-      <c r="F12" t="n">
-        <v>28.07185618597559</v>
-      </c>
-      <c r="G12" t="n">
-        <v>20.60814029016143</v>
-      </c>
-      <c r="H12" t="n">
-        <v>27.74975982949355</v>
-      </c>
-      <c r="I12" t="n">
-        <v>26.93245508449643</v>
-      </c>
-    </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Improvement</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>0</v>
-      </c>
-      <c r="C13" t="n">
-        <v>8.990406478326676</v>
-      </c>
-      <c r="D13" t="n">
-        <v>8.403263096483606</v>
-      </c>
-      <c r="E13" t="n">
-        <v>8.918567053095352</v>
-      </c>
-      <c r="F13" t="n">
-        <v>8.403255139524415</v>
-      </c>
-      <c r="G13" t="n">
-        <v>0.9395392437102537</v>
-      </c>
-      <c r="H13" t="n">
-        <v>8.081158783042365</v>
-      </c>
-      <c r="I13" t="n">
-        <v>7.263854038045249</v>
+      <c r="A13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>SSIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Rows</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>noisy</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>bm3d</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>da3d</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>ddid</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>nldd</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>nlm</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>nlmlbp</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>nlmglcm</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>1</v>
+      </c>
+      <c r="B16" t="n">
+        <v>0.595674822313254</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.8859223313921092</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.8763104817024115</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.8870048372088453</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.8763097061327715</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.7467895194892212</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0.8472020062466812</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0.8163624259464982</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>2</v>
+      </c>
+      <c r="B17" t="n">
+        <v>0.5963399825560916</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.8863258529094273</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.8780045431949733</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.8867205901262405</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.8780045431949733</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.7434855104760473</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0.8463599784472514</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0.8147510096732902</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>3</v>
+      </c>
+      <c r="B18" t="n">
+        <v>0.595841188057574</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.8847466945215301</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0.8766548621159326</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.885262944673621</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0.8766548621159326</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.7463627502627945</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0.845377166448914</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0.8127081860004999</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>4</v>
+      </c>
+      <c r="B19" t="n">
+        <v>0.5958914805257015</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.8858328585790691</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0.8783017209231024</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0.8864656532977455</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0.8783011646450418</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0.7451541034918413</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0.8479553727660375</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0.8165076984470867</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>5</v>
+      </c>
+      <c r="B20" t="n">
+        <v>0.5966610365377804</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.8872185554167417</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0.8764996431679019</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0.8854660177911128</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0.8764996431679019</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0.7464030938023337</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0.8481661790897622</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0.8185718220440603</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>6</v>
+      </c>
+      <c r="B21" t="n">
+        <v>0.5958858772978056</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.8859545915104866</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0.877124044967837</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0.8860024366621763</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0.877124044967837</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.7456274489200754</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0.8463191724724382</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0.8145607265258205</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>7</v>
+      </c>
+      <c r="B22" t="n">
+        <v>0.5967840665684898</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.8874763054137927</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0.8791259980222311</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0.8866970119306576</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0.8791259980222311</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.7469262025036747</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0.848382739991817</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0.8174583218797127</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>8</v>
+      </c>
+      <c r="B23" t="n">
+        <v>0.5965344093958761</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.885869371776096</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0.8773220094570259</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0.8863537385138519</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0.8773225683861371</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0.7474146119000497</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0.8467901621528963</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0.815642056534313</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>9</v>
+      </c>
+      <c r="B24" t="n">
+        <v>0.5964155258343979</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0.8864652449703886</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0.8756717766082831</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0.8860562231110471</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0.8756696374994115</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0.7459034371044727</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0.8462603063848918</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0.8170007333690865</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>10</v>
+      </c>
+      <c r="B25" t="n">
+        <v>0.596990903227324</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0.8878656141577629</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0.8785956349946479</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0.8887479615256626</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0.8785956349946479</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.7479997749566059</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0.8473502429747282</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0.815740780965291</v>
       </c>
     </row>
   </sheetData>
@@ -1270,7 +1854,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I13"/>
+  <dimension ref="A1:I25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1281,400 +1865,692 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
+          <t>PSNR [dB]</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
           <t>Rows</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
+      <c r="B2" t="inlineStr">
         <is>
           <t>noisy</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
+      <c r="C2" t="inlineStr">
         <is>
           <t>bm3d</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>da3d</t>
         </is>
       </c>
-      <c r="E1" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>ddid</t>
         </is>
       </c>
-      <c r="F1" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>nldd</t>
         </is>
       </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>nlm_default</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>nlm</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
         <is>
           <t>nlmlbp</t>
         </is>
       </c>
-      <c r="I1" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>nlmglcm</t>
         </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B2" t="n">
-        <v>14.57274643124718</v>
-      </c>
-      <c r="C2" t="n">
-        <v>25.77490594117573</v>
-      </c>
-      <c r="D2" t="n">
-        <v>24.76489021252141</v>
-      </c>
-      <c r="E2" t="n">
-        <v>25.44016755631057</v>
-      </c>
-      <c r="F2" t="n">
-        <v>24.76489021252141</v>
-      </c>
-      <c r="G2" t="n">
-        <v>17.05551583194458</v>
-      </c>
-      <c r="H2" t="n">
-        <v>22.39794536257531</v>
-      </c>
-      <c r="I2" t="n">
-        <v>20.97272681953596</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>14.5615505613959</v>
+        <v>14.57274643124718</v>
       </c>
       <c r="C3" t="n">
-        <v>25.73339024027336</v>
+        <v>25.77490594117573</v>
       </c>
       <c r="D3" t="n">
-        <v>24.798111399387</v>
+        <v>24.76489021252141</v>
       </c>
       <c r="E3" t="n">
-        <v>25.44281483027497</v>
+        <v>25.44016755631057</v>
       </c>
       <c r="F3" t="n">
-        <v>24.798111399387</v>
+        <v>24.76489021252141</v>
       </c>
       <c r="G3" t="n">
-        <v>17.04818132680342</v>
+        <v>19.79156089948246</v>
       </c>
       <c r="H3" t="n">
-        <v>22.41449991866852</v>
+        <v>22.39794536257531</v>
       </c>
       <c r="I3" t="n">
-        <v>20.99556740196243</v>
+        <v>20.97272681953596</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>14.57925255383172</v>
+        <v>14.5615505613959</v>
       </c>
       <c r="C4" t="n">
-        <v>25.76617243954102</v>
+        <v>25.73339024027336</v>
       </c>
       <c r="D4" t="n">
-        <v>24.83435445614652</v>
+        <v>24.798111399387</v>
       </c>
       <c r="E4" t="n">
-        <v>25.49992930530222</v>
+        <v>25.44281483027497</v>
       </c>
       <c r="F4" t="n">
-        <v>24.83435445614652</v>
+        <v>24.798111399387</v>
       </c>
       <c r="G4" t="n">
-        <v>17.06337316303524</v>
+        <v>19.79400180680181</v>
       </c>
       <c r="H4" t="n">
-        <v>22.43477074005446</v>
+        <v>22.41449991866852</v>
       </c>
       <c r="I4" t="n">
-        <v>21.03179712592421</v>
+        <v>20.99556740196243</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>14.58060040727101</v>
+        <v>14.57925255383172</v>
       </c>
       <c r="C5" t="n">
-        <v>25.8000542832603</v>
+        <v>25.76617243954102</v>
       </c>
       <c r="D5" t="n">
-        <v>24.82226661545106</v>
+        <v>24.83435445614652</v>
       </c>
       <c r="E5" t="n">
-        <v>25.49925492880111</v>
+        <v>25.49992930530222</v>
       </c>
       <c r="F5" t="n">
-        <v>24.82227202702409</v>
+        <v>24.83435445614652</v>
       </c>
       <c r="G5" t="n">
-        <v>17.06206368873923</v>
+        <v>19.81246453641021</v>
       </c>
       <c r="H5" t="n">
-        <v>22.45316896784264</v>
+        <v>22.43477074005446</v>
       </c>
       <c r="I5" t="n">
-        <v>21.05366682736798</v>
+        <v>21.03179712592421</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>14.56082076980098</v>
+        <v>14.58060040727101</v>
       </c>
       <c r="C6" t="n">
-        <v>25.78510115552288</v>
+        <v>25.8000542832603</v>
       </c>
       <c r="D6" t="n">
-        <v>24.82175967335511</v>
+        <v>24.82226661545106</v>
       </c>
       <c r="E6" t="n">
-        <v>25.482579356127</v>
+        <v>25.49925492880111</v>
       </c>
       <c r="F6" t="n">
-        <v>24.82175967335511</v>
+        <v>24.82227202702409</v>
       </c>
       <c r="G6" t="n">
-        <v>17.04844393660841</v>
+        <v>19.82231474623637</v>
       </c>
       <c r="H6" t="n">
-        <v>22.44469786905776</v>
+        <v>22.45316896784264</v>
       </c>
       <c r="I6" t="n">
-        <v>21.02341674113636</v>
+        <v>21.05366682736798</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>14.56324355222458</v>
+        <v>14.56082076980098</v>
       </c>
       <c r="C7" t="n">
-        <v>25.77169728714976</v>
+        <v>25.78510115552288</v>
       </c>
       <c r="D7" t="n">
-        <v>24.77698964460554</v>
+        <v>24.82175967335511</v>
       </c>
       <c r="E7" t="n">
-        <v>25.47682486172833</v>
+        <v>25.482579356127</v>
       </c>
       <c r="F7" t="n">
-        <v>24.77698964460554</v>
+        <v>24.82175967335511</v>
       </c>
       <c r="G7" t="n">
-        <v>17.04161578057388</v>
+        <v>19.80106660328019</v>
       </c>
       <c r="H7" t="n">
-        <v>22.43152196630176</v>
+        <v>22.44469786905776</v>
       </c>
       <c r="I7" t="n">
-        <v>21.03181201463027</v>
+        <v>21.02341674113636</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>14.54821185866155</v>
+        <v>14.56324355222458</v>
       </c>
       <c r="C8" t="n">
-        <v>25.81460198962333</v>
+        <v>25.77169728714976</v>
       </c>
       <c r="D8" t="n">
-        <v>24.82274945989617</v>
+        <v>24.77698964460554</v>
       </c>
       <c r="E8" t="n">
-        <v>25.50276834202588</v>
+        <v>25.47682486172833</v>
       </c>
       <c r="F8" t="n">
-        <v>24.82277295670362</v>
+        <v>24.77698964460554</v>
       </c>
       <c r="G8" t="n">
-        <v>17.03970052321844</v>
+        <v>19.81123989836817</v>
       </c>
       <c r="H8" t="n">
-        <v>22.45531765322306</v>
+        <v>22.43152196630176</v>
       </c>
       <c r="I8" t="n">
-        <v>21.03961152799299</v>
+        <v>21.03181201463027</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>14.57407853556555</v>
+        <v>14.54821185866155</v>
       </c>
       <c r="C9" t="n">
-        <v>25.77878030113766</v>
+        <v>25.81460198962333</v>
       </c>
       <c r="D9" t="n">
-        <v>24.83631908405442</v>
+        <v>24.82274945989617</v>
       </c>
       <c r="E9" t="n">
-        <v>25.50388681097782</v>
+        <v>25.50276834202588</v>
       </c>
       <c r="F9" t="n">
-        <v>24.83631908405442</v>
+        <v>24.82277295670362</v>
       </c>
       <c r="G9" t="n">
-        <v>17.05759954046777</v>
+        <v>19.79921324886763</v>
       </c>
       <c r="H9" t="n">
-        <v>22.45838247355496</v>
+        <v>22.45531765322306</v>
       </c>
       <c r="I9" t="n">
-        <v>21.04843147483341</v>
+        <v>21.03961152799299</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>14.58730029836311</v>
+        <v>14.57407853556555</v>
       </c>
       <c r="C10" t="n">
-        <v>25.73090444114084</v>
+        <v>25.77878030113766</v>
       </c>
       <c r="D10" t="n">
-        <v>24.75060335562065</v>
+        <v>24.83631908405442</v>
       </c>
       <c r="E10" t="n">
-        <v>25.43018131485918</v>
+        <v>25.50388681097782</v>
       </c>
       <c r="F10" t="n">
-        <v>24.75060335562065</v>
+        <v>24.83631908405442</v>
       </c>
       <c r="G10" t="n">
-        <v>17.05545477804036</v>
+        <v>19.82398722440386</v>
       </c>
       <c r="H10" t="n">
-        <v>22.40950463928297</v>
+        <v>22.45838247355496</v>
       </c>
       <c r="I10" t="n">
-        <v>21.0057503874357</v>
+        <v>21.04843147483341</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>14.58730029836311</v>
+      </c>
+      <c r="C11" t="n">
+        <v>25.73090444114084</v>
+      </c>
+      <c r="D11" t="n">
+        <v>24.75060335562065</v>
+      </c>
+      <c r="E11" t="n">
+        <v>25.43018131485918</v>
+      </c>
+      <c r="F11" t="n">
+        <v>24.75060335562065</v>
+      </c>
+      <c r="G11" t="n">
+        <v>19.81152086712193</v>
+      </c>
+      <c r="H11" t="n">
+        <v>22.40950463928297</v>
+      </c>
+      <c r="I11" t="n">
+        <v>21.0057503874357</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
         <v>10</v>
       </c>
-      <c r="B11" t="n">
+      <c r="B12" t="n">
         <v>14.56180248557641</v>
       </c>
-      <c r="C11" t="n">
+      <c r="C12" t="n">
         <v>25.77825357392545</v>
       </c>
-      <c r="D11" t="n">
+      <c r="D12" t="n">
         <v>24.82186545188275</v>
       </c>
-      <c r="E11" t="n">
+      <c r="E12" t="n">
         <v>25.48208658529696</v>
       </c>
-      <c r="F11" t="n">
+      <c r="F12" t="n">
         <v>24.82186545188275</v>
       </c>
-      <c r="G11" t="n">
-        <v>17.05250931784944</v>
-      </c>
-      <c r="H11" t="n">
+      <c r="G12" t="n">
+        <v>19.81933110491272</v>
+      </c>
+      <c r="H12" t="n">
         <v>22.46903412550548</v>
       </c>
-      <c r="I11" t="n">
+      <c r="I12" t="n">
         <v>21.04957071688169</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Average</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>14.5689607453938</v>
-      </c>
-      <c r="C12" t="n">
-        <v>25.77338616527503</v>
-      </c>
-      <c r="D12" t="n">
-        <v>24.80499093529206</v>
-      </c>
-      <c r="E12" t="n">
-        <v>25.47604938917041</v>
-      </c>
-      <c r="F12" t="n">
-        <v>24.80499382613011</v>
-      </c>
-      <c r="G12" t="n">
-        <v>17.05244578872808</v>
-      </c>
-      <c r="H12" t="n">
-        <v>22.43688437160669</v>
-      </c>
-      <c r="I12" t="n">
-        <v>21.0252351037701</v>
-      </c>
-    </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Improvement</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>0</v>
-      </c>
-      <c r="C13" t="n">
-        <v>11.20442541988123</v>
-      </c>
-      <c r="D13" t="n">
-        <v>10.23603018989826</v>
-      </c>
-      <c r="E13" t="n">
-        <v>10.90708864377661</v>
-      </c>
-      <c r="F13" t="n">
-        <v>10.23603308073631</v>
-      </c>
-      <c r="G13" t="n">
-        <v>2.483485043334278</v>
-      </c>
-      <c r="H13" t="n">
-        <v>7.867923626212891</v>
-      </c>
-      <c r="I13" t="n">
-        <v>6.4562743583763</v>
+      <c r="A13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>SSIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Rows</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>noisy</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>bm3d</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>da3d</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>ddid</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>nldd</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>nlm</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>nlmlbp</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>nlmglcm</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>1</v>
+      </c>
+      <c r="B16" t="n">
+        <v>0.3686931228265584</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.8052390702600062</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.7543852582961342</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.7976221965524791</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.7543852582961342</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.5065057229589666</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0.6512761773360531</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0.569996514577741</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>2</v>
+      </c>
+      <c r="B17" t="n">
+        <v>0.3683818851800698</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.8023925135058011</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.7559252303861469</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.7979973658722301</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.7559252303861469</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.5031289908539203</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0.6548905341938802</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0.5716196806337882</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>3</v>
+      </c>
+      <c r="B18" t="n">
+        <v>0.3695521442668025</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.800318042119716</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0.7570235826181934</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.804355934141103</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0.7570235826181934</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.5076704189983881</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0.6526673461523451</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0.5708930326421939</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>4</v>
+      </c>
+      <c r="B19" t="n">
+        <v>0.3697352230256468</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.8036260969756187</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0.7554185269826472</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0.7984300246387285</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0.7554190125487926</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0.5069303292653858</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0.6559520838246807</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0.5730969402828948</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>5</v>
+      </c>
+      <c r="B20" t="n">
+        <v>0.3687965116598078</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.8057290770460686</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0.7567287892264321</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0.8005751458145248</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0.7567287892264321</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0.5052333981826267</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0.6556849586832139</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0.5751072750218228</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>6</v>
+      </c>
+      <c r="B21" t="n">
+        <v>0.3684256486183504</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.8044836938177602</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0.761479915142231</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0.7988300735148594</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0.761479915142231</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.5096749514792751</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0.653319710123655</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0.5725258453383156</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>7</v>
+      </c>
+      <c r="B22" t="n">
+        <v>0.3685341504162168</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.8055071705497435</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0.7635846431183502</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0.8018033241719843</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0.7635855389587026</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.5024819282603078</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0.6558501843336051</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0.5714812810699107</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>8</v>
+      </c>
+      <c r="B23" t="n">
+        <v>0.3687388009609844</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.8068858466357512</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0.7643658157588096</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0.7994078926167697</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0.7643658157588096</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0.5083336811403254</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0.6549298991254299</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0.5742684561810134</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>9</v>
+      </c>
+      <c r="B24" t="n">
+        <v>0.369622095003142</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0.8055678417636719</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0.7611661293247245</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0.7967543648189904</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0.7611661293247245</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0.5112065327910517</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0.652043113923319</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0.5697348381666553</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>10</v>
+      </c>
+      <c r="B25" t="n">
+        <v>0.3690129384252323</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0.8054897879494399</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0.7572734576043465</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0.8015160826879036</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0.7572734576043465</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.5104815684344736</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0.6601372673761378</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0.5774386555833418</v>
       </c>
     </row>
   </sheetData>
